--- a/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
+++ b/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A4B873-D48B-4AA7-9E68-F45664BF5F4B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB96667-4E04-4074-A289-F882C86F6519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +57,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1426,7 +1438,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1446,8 +1458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="2809875"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="6858000" y="3876675"/>
+          <a:ext cx="1314450" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1756,7 +1768,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1776,8 +1788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762750" y="5353050"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="6762750" y="7419975"/>
+          <a:ext cx="1333500" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2245,13 +2257,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2271,8 +2283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6677025" y="7715250"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="6677024" y="10715625"/>
+          <a:ext cx="1323975" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,13 +2752,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2766,8 +2778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8829675" y="885825"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="8829674" y="1219200"/>
+          <a:ext cx="1343025" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,7 +3088,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3096,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="9439275"/>
-          <a:ext cx="752475" cy="447675"/>
+          <a:off x="7019925" y="13106400"/>
+          <a:ext cx="895350" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3243,7 +3255,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3263,8 +3275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="12020550"/>
-          <a:ext cx="885825" cy="447675"/>
+          <a:off x="6838950" y="16687800"/>
+          <a:ext cx="1000125" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3575,7 +3587,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3595,8 +3607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582025" y="10163175"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="8582025" y="14097000"/>
+          <a:ext cx="1257300" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4064,13 +4076,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4090,8 +4102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8553450" y="12658725"/>
-          <a:ext cx="1200150" cy="342900"/>
+          <a:off x="8553449" y="17526000"/>
+          <a:ext cx="1304925" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4713,20 +4725,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F105:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="105" spans="6:7" ht="24">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
+++ b/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB96667-4E04-4074-A289-F882C86F6519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BF48E-0E79-4F91-AC08-56A9C9E9EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="パッケージ図" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,8 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,8 +151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="171450"/>
-          <a:ext cx="10706100" cy="16573500"/>
+          <a:off x="3339465" y="228600"/>
+          <a:ext cx="10462260" cy="22059900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -773,8 +775,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -794,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="609600"/>
-          <a:ext cx="762000" cy="447675"/>
+          <a:off x="7162800" y="781050"/>
+          <a:ext cx="1036320" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,7 +1275,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1293,8 +1295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="3352800"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="6867525" y="4438650"/>
+          <a:ext cx="1163955" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,8 +1604,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1623,8 +1625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934200" y="5895975"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="6781800" y="7839075"/>
+          <a:ext cx="1333500" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2428,7 +2430,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -2448,8 +2450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="8267700"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="6701790" y="11010900"/>
+          <a:ext cx="1230630" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2923,7 +2925,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2943,8 +2945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810625" y="1381125"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="8627745" y="1838325"/>
+          <a:ext cx="1331595" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3581,13 +3583,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3607,8 +3609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582025" y="14097000"/>
-          <a:ext cx="1257300" cy="476250"/>
+          <a:off x="8399144" y="13535025"/>
+          <a:ext cx="1407795" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,7 +3754,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3772,8 +3774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="10706100"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="8408670" y="14249400"/>
+          <a:ext cx="1123950" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4241,15 +4243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4267,8 +4269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="13192125"/>
-          <a:ext cx="1019175" cy="323850"/>
+          <a:off x="8328660" y="17527905"/>
+          <a:ext cx="1348740" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4725,13 +4727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F105:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>0</v>

--- a/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
+++ b/class_diagram/after/面談予約システム_パッケージ図 (java spring).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BF48E-0E79-4F91-AC08-56A9C9E9EDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{908BF48E-0E79-4F91-AC08-56A9C9E9EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596AC297-797F-4E2F-9E49-C663321D3905}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2588,16 +2588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2615,8 +2615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="400050"/>
-          <a:ext cx="647700" cy="352425"/>
+          <a:off x="9829800" y="457200"/>
+          <a:ext cx="647700" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2753,16 +2753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2780,8 +2780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8829674" y="1219200"/>
-          <a:ext cx="1343025" cy="476250"/>
+          <a:off x="9839324" y="1057275"/>
+          <a:ext cx="1343025" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,16 +2918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2945,8 +2945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8627745" y="1838325"/>
-          <a:ext cx="1331595" cy="381000"/>
+          <a:off x="9839325" y="1647825"/>
+          <a:ext cx="1362075" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4399,6 +4399,173 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183F754C-0BB8-46EE-A836-2FE0F13AA976}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{03A43BAA-ADC7-42C3-912A-380552213E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2371725"/>
+          <a:ext cx="1600200" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>component</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4727,13 +4894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F105:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q105" sqref="Q105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="105" spans="6:7" ht="28.9">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>0</v>
